--- a/julia/RFFO/result_RFFO_Zkt_ABC.xlsx
+++ b/julia/RFFO/result_RFFO_Zkt_ABC.xlsx
@@ -455,7 +455,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.0067</v>
+        <v>0.0118</v>
       </c>
       <c r="E2">
         <v>11931.4</v>
@@ -464,10 +464,10 @@
         <v>0.0</v>
       </c>
       <c r="G2">
-        <v>0.0039</v>
+        <v>0.0041</v>
       </c>
       <c r="H2">
-        <v>0.0106</v>
+        <v>0.0159</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -475,13 +475,13 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>21998.96</v>
+        <v>21994.96</v>
       </c>
       <c r="C3">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="D3">
-        <v>0.0505</v>
+        <v>0.0569</v>
       </c>
       <c r="E3">
         <v>21980.17</v>
@@ -490,10 +490,10 @@
         <v>0.0</v>
       </c>
       <c r="G3">
-        <v>0.0416</v>
+        <v>0.0523</v>
       </c>
       <c r="H3">
-        <v>0.0921</v>
+        <v>0.10919999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -507,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="D4">
-        <v>0.0151</v>
+        <v>0.0145</v>
       </c>
       <c r="E4">
         <v>38858.6</v>
@@ -516,10 +516,10 @@
         <v>0.0</v>
       </c>
       <c r="G4">
-        <v>0.0096</v>
+        <v>0.0089</v>
       </c>
       <c r="H4">
-        <v>0.0247</v>
+        <v>0.0234</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -527,25 +527,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>74412.39</v>
+        <v>74412.24</v>
       </c>
       <c r="C5">
         <v>0.0</v>
       </c>
       <c r="D5">
-        <v>0.0651</v>
+        <v>0.0529</v>
       </c>
       <c r="E5">
-        <v>74409.5</v>
+        <v>74409.1</v>
       </c>
       <c r="F5">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="G5">
-        <v>0.0454</v>
+        <v>0.0306</v>
       </c>
       <c r="H5">
-        <v>0.11050000000000001</v>
+        <v>0.0835</v>
       </c>
     </row>
   </sheetData>
